--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525314.314832713</v>
+        <v>531321.9064073307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.46841271</v>
+        <v>16722200.63474373</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.08219046</v>
+        <v>2152646.40791149</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6692265.840872885</v>
+        <v>7230681.065929313</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>393.8781271337549</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34.78054061858353</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.2712455521796</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>43.77283765622091</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>257.23444481262</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>127.1100078938263</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>30.11288841831372</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>101.1319328390686</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>400.3276499465829</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>210.4567660686563</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>420.3713233744091</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>382.9957474251671</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.34318456170457</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>128.7778691150972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>122.5753912101439</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>325.1635195597222</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1771,10 +1773,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>115.6348798138342</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>246.3049443265652</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>105.2234111170471</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>376.0713987766831</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>74.27355480885183</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170457</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>365.178595572457</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>352.992482542553</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>135.1077460700516</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>103.3456594571956</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2191.083228176007</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.940755359431</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.030970533875</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E2" t="n">
-        <v>883.2562256921701</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>455.3887961013779</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M2" t="n">
-        <v>57.53210202687796</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>737.032725467017</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2876.605101343898</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2876.605101343898</v>
+        <v>2551.277093404575</v>
       </c>
       <c r="U2" t="n">
-        <v>2617.382798660915</v>
+        <v>2551.277093404575</v>
       </c>
       <c r="V2" t="n">
-        <v>2617.382798660915</v>
+        <v>2551.277093404575</v>
       </c>
       <c r="W2" t="n">
-        <v>2617.382798660915</v>
+        <v>2146.421638815608</v>
       </c>
       <c r="X2" t="n">
-        <v>2617.382798660915</v>
+        <v>1727.279175394919</v>
       </c>
       <c r="Y2" t="n">
-        <v>2617.382798660915</v>
+        <v>1318.993051694572</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1719.537084856382</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1613.080623693025</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1517.990334839578</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1423.869920166532</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1340.486081782693</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1255.100992048877</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>1213.365339865089</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>1925.325102447704</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>1925.325102447704</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P3" t="n">
-        <v>2218.693384617483</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
-        <v>2759.432323249559</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>2876.605101343898</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2813.149663792281</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2682.971020122883</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2506.634473122851</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2307.516955184851</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>2122.194200918045</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1967.326765156925</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1840.840985936145</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819.9810342908901</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C4" t="n">
-        <v>647.419322774115</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D4" t="n">
-        <v>481.5413299756377</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>311.783326226375</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>311.783326226375</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>146.1920512522026</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>146.1920512522026</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2652.77389063505</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2493.532521933046</v>
+        <v>2625.845838899892</v>
       </c>
       <c r="T4" t="n">
-        <v>2247.653075511501</v>
+        <v>2379.966392478347</v>
       </c>
       <c r="U4" t="n">
-        <v>1969.220074764607</v>
+        <v>2101.533391731452</v>
       </c>
       <c r="V4" t="n">
-        <v>1682.264566635037</v>
+        <v>1814.577883601883</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.238162221329</v>
+        <v>1542.551479188174</v>
       </c>
       <c r="X4" t="n">
-        <v>1164.846407554741</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y4" t="n">
-        <v>937.4267368688493</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7627059416142</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="C5" t="n">
-        <v>718.7627059416142</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D5" t="n">
-        <v>718.7627059416142</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7627059416142</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>458.9299334036141</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M5" t="n">
-        <v>57.53210202687796</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N5" t="n">
-        <v>769.4918646094927</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O5" t="n">
-        <v>1448.992488049632</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.952250632246</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.886000400774</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.66369771779</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.046747651617</v>
+        <v>2541.666879063927</v>
       </c>
       <c r="W5" t="n">
-        <v>1546.19129306265</v>
+        <v>2136.81142447496</v>
       </c>
       <c r="X5" t="n">
-        <v>1127.048829641961</v>
+        <v>1717.668961054271</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7627059416142</v>
+        <v>1309.382837353925</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>57.53210202687796</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6795602461177</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O6" t="n">
-        <v>891.6393228287325</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P6" t="n">
-        <v>1603.599085411347</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q6" t="n">
-        <v>1603.599085411347</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.6081181498621</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>573.046406633087</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>407.1684138346097</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>237.410410085347</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>60.7033560471032</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>57.53210202687796</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>57.53210202687796</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2652.77389063505</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2493.532521933046</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2247.653075511501</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1969.220074764607</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1682.264566635037</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.238162221329</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.846407554741</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.4267368688493</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1430.767930585085</v>
+        <v>2045.333029354115</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.614463070875</v>
+        <v>1607.190556537538</v>
       </c>
       <c r="D8" t="n">
-        <v>892.704678245319</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="E8" t="n">
-        <v>458.9299334036141</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F8" t="n">
-        <v>458.9299334036141</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G8" t="n">
-        <v>57.53210202687796</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M8" t="n">
-        <v>57.53210202687796</v>
+        <v>652.3022337192177</v>
       </c>
       <c r="N8" t="n">
-        <v>769.4918646094927</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O8" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P8" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q8" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T8" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U8" t="n">
-        <v>2617.382798660915</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V8" t="n">
-        <v>2254.765848594741</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W8" t="n">
-        <v>1849.910394005775</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X8" t="n">
-        <v>1430.767930585085</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y8" t="n">
-        <v>1430.767930585085</v>
+        <v>2471.632599839023</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="N9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="O9" t="n">
-        <v>350.9003841966569</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P9" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>819.9810342908901</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C10" t="n">
-        <v>647.419322774115</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D10" t="n">
-        <v>481.5413299756377</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E10" t="n">
-        <v>311.783326226375</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F10" t="n">
-        <v>311.783326226375</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G10" t="n">
-        <v>146.1920512522026</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1920512522026</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2652.77389063505</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S10" t="n">
-        <v>2493.532521933046</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T10" t="n">
-        <v>2247.653075511501</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U10" t="n">
-        <v>1969.220074764607</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V10" t="n">
-        <v>1756.637482776065</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W10" t="n">
-        <v>1484.611078362356</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X10" t="n">
-        <v>1239.219323695769</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y10" t="n">
-        <v>1011.799653009877</v>
+        <v>1191.738082958682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.704109567722</v>
+        <v>1638.728977780687</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.704109567722</v>
+        <v>1638.728977780687</v>
       </c>
       <c r="D11" t="n">
-        <v>845.7943247421667</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="E11" t="n">
-        <v>845.7943247421667</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F11" t="n">
-        <v>458.9299334036141</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G11" t="n">
-        <v>57.53210202687796</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M11" t="n">
-        <v>57.53210202687796</v>
+        <v>652.3022337192177</v>
       </c>
       <c r="N11" t="n">
-        <v>769.4918646094927</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O11" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P11" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q11" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V11" t="n">
-        <v>2513.988151277725</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.132696688758</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X11" t="n">
-        <v>1689.990233268069</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1281.704109567722</v>
+        <v>2063.346476138676</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M12" t="n">
-        <v>179.6795602461177</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="N12" t="n">
-        <v>179.6795602461177</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="O12" t="n">
-        <v>891.6393228287325</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P12" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>882.3390384392624</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C13" t="n">
-        <v>709.7773269224873</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D13" t="n">
-        <v>543.89933412401</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E13" t="n">
-        <v>374.1413303747472</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F13" t="n">
-        <v>197.4342763365034</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G13" t="n">
-        <v>197.4342763365034</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2514.950343227674</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.070896806129</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.637896059235</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.682387929665</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.655983515957</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X13" t="n">
-        <v>1301.577327844141</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y13" t="n">
-        <v>1074.15765715825</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.300306215519</v>
+        <v>1720.698779469931</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.157833398943</v>
+        <v>1282.556306653355</v>
       </c>
       <c r="D14" t="n">
-        <v>1300.157833398943</v>
+        <v>846.646521827799</v>
       </c>
       <c r="E14" t="n">
-        <v>1176.34430692405</v>
+        <v>412.8717769860942</v>
       </c>
       <c r="F14" t="n">
-        <v>748.4768773332578</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="G14" t="n">
-        <v>347.0790459565217</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H14" t="n">
-        <v>57.94889139973796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M14" t="n">
-        <v>57.53210202687796</v>
+        <v>652.3022337192177</v>
       </c>
       <c r="N14" t="n">
-        <v>737.032725467017</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>2792.953227527735</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>2572.886000400774</v>
+        <v>4001.121644413998</v>
       </c>
       <c r="U14" t="n">
-        <v>2572.886000400774</v>
+        <v>3741.899341731015</v>
       </c>
       <c r="V14" t="n">
-        <v>2572.886000400774</v>
+        <v>3379.282391664841</v>
       </c>
       <c r="W14" t="n">
-        <v>2572.886000400774</v>
+        <v>2974.426937075875</v>
       </c>
       <c r="X14" t="n">
-        <v>2572.886000400774</v>
+        <v>2555.284473655186</v>
       </c>
       <c r="Y14" t="n">
-        <v>2164.599876700427</v>
+        <v>2146.998349954839</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="N15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="O15" t="n">
-        <v>350.9003841966569</v>
+        <v>927.9403724304299</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767.0259394444902</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>594.4642279277151</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>428.5862351292378</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>428.5862351292378</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>311.783326226375</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2514.950343227674</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2269.070896806129</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>1990.637896059235</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.682387929665</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.655983515957</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1186.264228849369</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>958.8445581634774</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1793.226534101507</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.084061284931</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>919.1742764593751</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>485.3995316176702</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>57.53210202687796</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>57.53210202687796</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>57.53210202687796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>57.53210202687796</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>769.4918646094927</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1481.451627192107</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2160.952250632246</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2707.451036590841</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2876.605101343898</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2876.605101343898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2876.605101343898</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2876.605101343898</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2627.812228286762</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2219.526104586415</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>350.9003841966569</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
-        <v>1062.860146779272</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1603.599085411347</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.6081181498621</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>573.046406633087</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>407.1684138346097</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>237.410410085347</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>223.1233770010503</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2652.77389063505</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2493.532521933046</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2247.653075511501</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>1969.220074764607</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.264566635037</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.238162221329</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.846407554741</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.4267368688493</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.634124109936</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>885.0724125931612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>719.1944197946839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>549.4364160454211</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>372.7293620071773</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.264168181403</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1476.872413514815</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1249.452742828923</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6555,13 +6557,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,7 +6706,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6786,19 +6788,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,10 +7177,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7266,13 +7268,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2199.988309279876</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>1761.845836463299</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1325.936051637744</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>892.1613067960388</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>464.2938772052466</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>652.3022337192177</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3858.571921474786</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3453.71646688582</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3034.57400346513</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2626.287879764784</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1083.7810821021</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.411126173566</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.019371506979</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.599700821087</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1186.202560776974</v>
+        <v>1720.698779469931</v>
       </c>
       <c r="C44" t="n">
-        <v>748.0600879603978</v>
+        <v>1282.556306653355</v>
       </c>
       <c r="D44" t="n">
-        <v>748.0600879603978</v>
+        <v>1282.556306653355</v>
       </c>
       <c r="E44" t="n">
-        <v>748.0600879603978</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F44" t="n">
-        <v>748.0600879603978</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G44" t="n">
-        <v>346.6622565836617</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M44" t="n">
-        <v>57.53210202687796</v>
+        <v>652.3022337192177</v>
       </c>
       <c r="N44" t="n">
-        <v>737.032725467017</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O44" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P44" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q44" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>2792.953227527735</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>2572.886000400774</v>
+        <v>4001.121644413998</v>
       </c>
       <c r="U44" t="n">
-        <v>2313.66369771779</v>
+        <v>3741.899341731015</v>
       </c>
       <c r="V44" t="n">
-        <v>1951.046747651617</v>
+        <v>3379.282391664841</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.046747651617</v>
+        <v>2974.426937075875</v>
       </c>
       <c r="X44" t="n">
-        <v>1594.488684477321</v>
+        <v>2555.284473655186</v>
       </c>
       <c r="Y44" t="n">
-        <v>1186.202560776974</v>
+        <v>2146.998349954839</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="N45" t="n">
-        <v>57.53210202687796</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="O45" t="n">
-        <v>769.4918646094927</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="P45" t="n">
-        <v>1481.451627192107</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.599085411347</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="R45" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>937.4267368688493</v>
+        <v>1039.309369515019</v>
       </c>
       <c r="C46" t="n">
-        <v>764.8650253520742</v>
+        <v>866.7476579982437</v>
       </c>
       <c r="D46" t="n">
-        <v>628.3925545742443</v>
+        <v>700.8696651997664</v>
       </c>
       <c r="E46" t="n">
-        <v>628.3925545742443</v>
+        <v>531.1116614505036</v>
       </c>
       <c r="F46" t="n">
-        <v>451.6855005360005</v>
+        <v>354.4046074122598</v>
       </c>
       <c r="G46" t="n">
-        <v>286.0942255618281</v>
+        <v>188.8133324380875</v>
       </c>
       <c r="H46" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2493.532521933046</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T46" t="n">
-        <v>2247.653075511501</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U46" t="n">
-        <v>1969.220074764607</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.264566635037</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.238162221329</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.846407554741</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.4267368688493</v>
+        <v>1231.127988234006</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N2" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3315981512915</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>686.3642661011506</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N6" t="n">
-        <v>123.381270928525</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>686.3642661011506</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>296.3315981512919</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P9" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N11" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>686.3642661011506</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>123.381270928525</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>719.1512753359746</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P12" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N14" t="n">
-        <v>686.3642661011506</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>296.3315981512919</v>
+        <v>852.0369646460715</v>
       </c>
       <c r="P15" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>719.1512753359746</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>686.3642661011506</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>296.3315981512919</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>719.1512753359746</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N21" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718073</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802861</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N44" t="n">
-        <v>686.3642661011506</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O45" t="n">
-        <v>719.1512753359746</v>
+        <v>624.7429452246683</v>
       </c>
       <c r="P45" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.3812709285251</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.505725929213838</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>183.0860142371082</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.62918697961764</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>113.8761173587624</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22793,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>166.3543104822643</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>231.8807726716854</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.0325855607191</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>332.6291152493424</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>31.22303703071702</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23188,13 +23190,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>73.62918697961757</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>1.665251405649599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23267,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>40.59300786971721</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1599680048245</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>306.8616061831439</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>98.42523573516212</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.30510368402713</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>168.6460944599172</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>21.31245428628563</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>96.56253959275548</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>64.25840182083078</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>61.95855624392942</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>29.11146680044092</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>35.15749310933364</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469238.432486427</v>
+        <v>448103.3777067244</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469238.432486427</v>
+        <v>448103.3777067243</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469238.432486427</v>
+        <v>606825.6478718792</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469238.4324864271</v>
+        <v>606825.647871879</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469238.432486427</v>
+        <v>606825.6478718792</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469238.432486427</v>
+        <v>698086.2989819918</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698086.2989819917</v>
+        <v>698086.2989819918</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698086.2989819917</v>
+        <v>698086.2989819918</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698086.2989819918</v>
+        <v>606825.647871879</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469238.432486427</v>
+        <v>606825.6478718792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150510.440608854</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
-        <v>150510.440608854</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="D2" t="n">
-        <v>150510.440608854</v>
+        <v>194642.1889400368</v>
       </c>
       <c r="E2" t="n">
-        <v>150510.4406088541</v>
+        <v>194642.1889400368</v>
       </c>
       <c r="F2" t="n">
-        <v>150510.440608854</v>
+        <v>194642.1889400368</v>
       </c>
       <c r="G2" t="n">
-        <v>150510.440608854</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="H2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="I2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="J2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="K2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="L2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
         <v>223914.4732583748</v>
@@ -26350,10 +26352,10 @@
         <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
-        <v>223914.4732583748</v>
+        <v>194642.1889400368</v>
       </c>
       <c r="P2" t="n">
-        <v>150510.440608854</v>
+        <v>194642.1889400368</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630934</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613196</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.1370162041</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.9991019242477</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="C4" t="n">
-        <v>541.9991019242477</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
-        <v>541.9991019242477</v>
+        <v>700.9207545689937</v>
       </c>
       <c r="E4" t="n">
-        <v>541.9991019242478</v>
+        <v>700.9207545689937</v>
       </c>
       <c r="F4" t="n">
-        <v>541.9991019242477</v>
+        <v>700.9207545689939</v>
       </c>
       <c r="G4" t="n">
-        <v>541.9991019242477</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826021</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
-      <c r="M4" t="n">
-        <v>806.3323907826024</v>
-      </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>700.9207545689937</v>
       </c>
       <c r="P4" t="n">
-        <v>541.9991019242477</v>
+        <v>700.9207545689937</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168387.6888779153</v>
+        <v>-154698.5378716059</v>
       </c>
       <c r="C6" t="n">
-        <v>72616.4439665025</v>
+        <v>69001.16071243898</v>
       </c>
       <c r="D6" t="n">
-        <v>72616.4439665025</v>
+        <v>-24305.1288250482</v>
       </c>
       <c r="E6" t="n">
-        <v>106244.0439665026</v>
+        <v>129779.1973380452</v>
       </c>
       <c r="F6" t="n">
-        <v>106244.0439665025</v>
+        <v>129779.1973380452</v>
       </c>
       <c r="G6" t="n">
-        <v>106244.0439665025</v>
+        <v>84279.01015566778</v>
       </c>
       <c r="H6" t="n">
-        <v>-5462.799448811071</v>
+        <v>145389.9022617997</v>
       </c>
       <c r="I6" t="n">
-        <v>145389.9022617997</v>
+        <v>145389.9022617996</v>
       </c>
       <c r="J6" t="n">
-        <v>-42771.71402220603</v>
+        <v>-29261.44645590655</v>
       </c>
       <c r="K6" t="n">
         <v>145389.9022617996</v>
       </c>
       <c r="L6" t="n">
+        <v>47245.76524559557</v>
+      </c>
+      <c r="M6" t="n">
         <v>145389.9022617996</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>145389.9022617997</v>
       </c>
-      <c r="N6" t="n">
-        <v>145389.9022617996</v>
-      </c>
       <c r="O6" t="n">
-        <v>145389.9022617997</v>
+        <v>129779.1973380452</v>
       </c>
       <c r="P6" t="n">
-        <v>106244.0439665025</v>
+        <v>129779.1973380452</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N2" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3315981512915</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>686.3642661011506</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N6" t="n">
-        <v>123.381270928525</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>686.3642661011506</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>296.3315981512919</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P9" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N11" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>686.3642661011506</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>123.381270928525</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>719.1512753359746</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P12" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N14" t="n">
-        <v>686.3642661011506</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>296.3315981512919</v>
+        <v>852.0369646460715</v>
       </c>
       <c r="P15" t="n">
-        <v>719.1512753359746</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>719.1512753359746</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>686.3642661011506</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>296.3315981512919</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>719.1512753359746</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N21" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>979.9836670718073</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36852,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,10 +37074,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802861</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>573.6146023115137</v>
       </c>
       <c r="N44" t="n">
-        <v>686.3642661011506</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O45" t="n">
-        <v>719.1512753359746</v>
+        <v>624.7429452246683</v>
       </c>
       <c r="P45" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.3812709285251</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>531321.9064073307</v>
+        <v>529529.6838161006</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16722200.63474373</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2152646.40791149</v>
+        <v>2152646.407911489</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7230681.065929313</v>
+        <v>7230681.065929312</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0.6635300630826714</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>34.78054061858353</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>43.77283765622091</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>35.16791248334739</v>
       </c>
       <c r="V5" t="n">
-        <v>127.1100078938263</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.11288841831372</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>400.3276499465829</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>240.3833624877645</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420.3713233744091</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>183.7355376405927</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170457</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>325.1635195597222</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>119.0286976413989</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>105.2234111170471</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>126.2097407909103</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>376.0713987766831</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170457</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>365.178595572457</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>37.37248603368145</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>103.3456594571956</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>136.9505762815748</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.993051694572</v>
+        <v>1755.253927541391</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.993051694572</v>
+        <v>1317.111454724814</v>
       </c>
       <c r="D2" t="n">
-        <v>883.0832668690169</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2551.277093404575</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2551.277093404575</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2551.277093404575</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2146.421638815608</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.279175394919</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1318.993051694572</v>
+        <v>2181.553498026298</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>877.921435116708</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>705.359723599933</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2625.845838899892</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2379.966392478347</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2101.533391731452</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1814.577883601883</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1542.551479188174</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1297.159724521587</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1069.740053835695</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>883.0832668690169</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>883.0832668690169</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>883.0832668690169</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862857</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="V5" t="n">
-        <v>2541.666879063927</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.81142447496</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.668961054271</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.382837353925</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="M6" t="n">
-        <v>394.9608689238807</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N6" t="n">
-        <v>1055.800923465659</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>959.897665623735</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1151.716284342722</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2045.333029354115</v>
+        <v>2063.346476138677</v>
       </c>
       <c r="C8" t="n">
-        <v>1607.190556537538</v>
+        <v>1625.2040033221</v>
       </c>
       <c r="D8" t="n">
-        <v>1202.819192955131</v>
+        <v>1189.294218496545</v>
       </c>
       <c r="E8" t="n">
-        <v>1202.819192955131</v>
+        <v>755.5194736548397</v>
       </c>
       <c r="F8" t="n">
-        <v>774.9517633643391</v>
+        <v>327.6520440640474</v>
       </c>
       <c r="G8" t="n">
-        <v>373.5539319876029</v>
+        <v>327.6520440640474</v>
       </c>
       <c r="H8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M8" t="n">
-        <v>652.3022337192177</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N8" t="n">
-        <v>1697.046479425605</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>3917.469770597835</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>3658.247467914852</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V8" t="n">
-        <v>3295.630517848678</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W8" t="n">
-        <v>2890.775063259712</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X8" t="n">
         <v>2471.632599839023</v>
       </c>
       <c r="Y8" t="n">
-        <v>2471.632599839023</v>
+        <v>2063.346476138677</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="K9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="L9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="M9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="N9" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="O9" t="n">
         <v>270.0286557040146</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163.481938042701</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>990.9202265259256</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>825.0422337274483</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>655.2842299781855</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>478.5771759399417</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
         <v>171.0034625955091</v>
@@ -4986,28 +4986,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2520.424197336987</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2274.544750915442</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>1996.111750168548</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1709.156242038978</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1437.12983762527</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1191.738082958682</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>1191.738082958682</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1638.728977780687</v>
+        <v>1857.11413278073</v>
       </c>
       <c r="C11" t="n">
-        <v>1638.728977780687</v>
+        <v>1671.522680618516</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.819192955131</v>
+        <v>1235.61289579296</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.819192955131</v>
+        <v>801.8381509512552</v>
       </c>
       <c r="F11" t="n">
-        <v>774.9517633643391</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G11" t="n">
-        <v>373.5539319876029</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L11" t="n">
-        <v>84.42377743081919</v>
+        <v>587.7376545831371</v>
       </c>
       <c r="M11" t="n">
-        <v>652.3022337192177</v>
+        <v>1632.481900289525</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.046479425605</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q11" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597835</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914852</v>
+        <v>3878.314695041814</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848678</v>
+        <v>3515.69774497564</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259712</v>
+        <v>3110.842290386674</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839023</v>
+        <v>2691.699826965985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.346476138676</v>
+        <v>2283.413703265638</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L12" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>270.0286557040146</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
         <v>1089.751822183213</v>
@@ -5190,13 +5190,13 @@
         <v>109.0128527456723</v>
       </c>
       <c r="G13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1720.698779469931</v>
+        <v>1820.534998878308</v>
       </c>
       <c r="C14" t="n">
-        <v>1282.556306653355</v>
+        <v>1382.392526061732</v>
       </c>
       <c r="D14" t="n">
-        <v>846.646521827799</v>
+        <v>946.4827412361763</v>
       </c>
       <c r="E14" t="n">
-        <v>412.8717769860942</v>
+        <v>512.7079963944715</v>
       </c>
       <c r="F14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="G14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L14" t="n">
-        <v>84.42377743081919</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="M14" t="n">
-        <v>652.3022337192177</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="N14" t="n">
-        <v>1697.046479425605</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P14" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q14" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R14" t="n">
         <v>4221.18887154096</v>
@@ -5308,22 +5308,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>4001.121644413998</v>
+        <v>4100.957863822376</v>
       </c>
       <c r="U14" t="n">
-        <v>3741.899341731015</v>
+        <v>3841.735561139392</v>
       </c>
       <c r="V14" t="n">
-        <v>3379.282391664841</v>
+        <v>3479.118611073219</v>
       </c>
       <c r="W14" t="n">
-        <v>2974.426937075875</v>
+        <v>3074.263156484252</v>
       </c>
       <c r="X14" t="n">
-        <v>2555.284473655186</v>
+        <v>2655.120693063563</v>
       </c>
       <c r="Y14" t="n">
-        <v>2146.998349954839</v>
+        <v>2246.834569363216</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>927.9403724304299</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1747.663538909628</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
         <v>1747.663538909628</v>
@@ -5427,13 +5427,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K21" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>3879.214741978675</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7013,22 +7013,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,7 +7177,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
         <v>306.120802776629</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2199.988309279876</v>
+        <v>2199.988309279877</v>
       </c>
       <c r="C41" t="n">
-        <v>1761.845836463299</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D41" t="n">
-        <v>1325.936051637744</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1613067960388</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F41" t="n">
-        <v>464.2938772052466</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G41" t="n">
-        <v>84.42377743081919</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M41" t="n">
-        <v>652.3022337192177</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="N41" t="n">
-        <v>1697.046479425605</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O41" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P41" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q41" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R41" t="n">
         <v>4221.18887154096</v>
@@ -7447,16 +7447,16 @@
         <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>3858.571921474786</v>
+        <v>3858.571921474787</v>
       </c>
       <c r="W41" t="n">
         <v>3453.71646688582</v>
       </c>
       <c r="X41" t="n">
-        <v>3034.57400346513</v>
+        <v>3034.574003465131</v>
       </c>
       <c r="Y41" t="n">
-        <v>2626.287879764784</v>
+        <v>2626.287879764785</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="K42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="L42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="M42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="N42" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="O42" t="n">
-        <v>1089.751822183213</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P42" t="n">
         <v>1089.751822183213</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>793.9176148484312</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
-        <v>621.3559033316561</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>455.4779105331788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>285.7199067839161</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0128527456723</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7596,25 +7596,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2541.842018631615</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>2295.96257221007</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>2017.529571463176</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>1730.574063333606</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>1458.547658919898</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>1213.15590425331</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.7362335674184</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1720.698779469931</v>
+        <v>2146.99834995484</v>
       </c>
       <c r="C44" t="n">
-        <v>1282.556306653355</v>
+        <v>1708.855877138263</v>
       </c>
       <c r="D44" t="n">
-        <v>1282.556306653355</v>
+        <v>1272.946092312708</v>
       </c>
       <c r="E44" t="n">
-        <v>913.6890383983475</v>
+        <v>839.1713474710027</v>
       </c>
       <c r="F44" t="n">
-        <v>485.8216088075553</v>
+        <v>411.3039178802105</v>
       </c>
       <c r="G44" t="n">
-        <v>84.42377743081919</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="M44" t="n">
-        <v>652.3022337192177</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="N44" t="n">
-        <v>1697.046479425605</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O44" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q44" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
         <v>4221.18887154096</v>
@@ -7678,22 +7678,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>4001.121644413998</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U44" t="n">
-        <v>3741.899341731015</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V44" t="n">
-        <v>3379.282391664841</v>
+        <v>3379.282391664842</v>
       </c>
       <c r="W44" t="n">
-        <v>2974.426937075875</v>
+        <v>2974.426937075876</v>
       </c>
       <c r="X44" t="n">
-        <v>2555.284473655186</v>
+        <v>2555.284473655187</v>
       </c>
       <c r="Y44" t="n">
-        <v>2146.998349954839</v>
+        <v>2146.99834995484</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="K45" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="L45" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="M45" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="N45" t="n">
-        <v>1129.168023137207</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="O45" t="n">
-        <v>1747.663538909628</v>
+        <v>270.0286557040146</v>
       </c>
       <c r="P45" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1747.663538909628</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
         <v>1747.663538909628</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1039.309369515019</v>
+        <v>1074.821988817376</v>
       </c>
       <c r="C46" t="n">
-        <v>866.7476579982437</v>
+        <v>902.2602773006009</v>
       </c>
       <c r="D46" t="n">
-        <v>700.8696651997664</v>
+        <v>736.3822845021236</v>
       </c>
       <c r="E46" t="n">
-        <v>531.1116614505036</v>
+        <v>566.6242807528608</v>
       </c>
       <c r="F46" t="n">
-        <v>354.4046074122598</v>
+        <v>389.917226714617</v>
       </c>
       <c r="G46" t="n">
-        <v>188.8133324380875</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="H46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7848,10 +7848,10 @@
         <v>1458.547658919898</v>
       </c>
       <c r="X46" t="n">
-        <v>1458.547658919898</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y46" t="n">
-        <v>1231.127988234006</v>
+        <v>1074.821988817376</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888434</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>573.6146023115137</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N8" t="n">
         <v>1055.29721788524</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P9" t="n">
         <v>828.0031984638366</v>
@@ -8695,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>508.3978557094121</v>
       </c>
       <c r="M11" t="n">
-        <v>573.6146023115137</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
         <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>573.6146023115137</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>979.9836670718073</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>573.6146023115137</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.482873487266</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>573.6146023115137</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N44" t="n">
         <v>1055.29721788524</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>624.7429452246683</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>430.8871569142173</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>183.0860142371082</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,10 +22719,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>221.4621671728059</v>
       </c>
       <c r="V5" t="n">
-        <v>231.8807726716854</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.0325855607191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.22303703071702</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>45.85549052345141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.665251405649599</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>250.0255104478182</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>98.42523573516212</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.83785721429281</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>69.71657238081421</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>307.5513072975007</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>21.31245428628563</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>64.25840182083078</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>360.0113670292873</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>35.15749310933364</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>88.194897697458</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448103.3777067244</v>
+        <v>448103.3777067243</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606825.647871879</v>
+        <v>606825.6478718792</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606825.647871879</v>
+        <v>606825.6478718792</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
         <v>194642.1889400368</v>
@@ -26334,10 +26334,10 @@
         <v>223914.4732583748</v>
       </c>
       <c r="I2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="J2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
         <v>223914.4732583748</v>
@@ -26352,7 +26352,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
-        <v>194642.1889400368</v>
+        <v>194642.1889400369</v>
       </c>
       <c r="P2" t="n">
         <v>194642.1889400368</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120456.7261630934</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613196</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.1370162041</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.5868204130779</v>
       </c>
       <c r="C4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="D4" t="n">
+        <v>700.9207545689939</v>
+      </c>
+      <c r="E4" t="n">
+        <v>700.9207545689939</v>
+      </c>
+      <c r="F4" t="n">
         <v>700.9207545689937</v>
       </c>
-      <c r="E4" t="n">
-        <v>700.9207545689937</v>
-      </c>
-      <c r="F4" t="n">
-        <v>700.9207545689939</v>
-      </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26447,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>700.9207545689937</v>
+        <v>700.9207545689939</v>
       </c>
       <c r="P4" t="n">
-        <v>700.9207545689937</v>
+        <v>700.9207545689939</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154698.5378716059</v>
+        <v>-155193.4281001872</v>
       </c>
       <c r="C6" t="n">
-        <v>69001.16071243898</v>
+        <v>68506.27048385772</v>
       </c>
       <c r="D6" t="n">
-        <v>-24305.1288250482</v>
+        <v>-24500.54307218588</v>
       </c>
       <c r="E6" t="n">
-        <v>129779.1973380452</v>
+        <v>129583.7830909076</v>
       </c>
       <c r="F6" t="n">
-        <v>129779.1973380452</v>
+        <v>129583.7830909076</v>
       </c>
       <c r="G6" t="n">
-        <v>84279.01015566778</v>
+        <v>84255.78581628515</v>
       </c>
       <c r="H6" t="n">
-        <v>145389.9022617997</v>
+        <v>145366.677922417</v>
       </c>
       <c r="I6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.677922417</v>
       </c>
       <c r="J6" t="n">
-        <v>-29261.44645590655</v>
+        <v>-29284.67079528911</v>
       </c>
       <c r="K6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.677922417</v>
       </c>
       <c r="L6" t="n">
-        <v>47245.76524559557</v>
+        <v>47222.54090621281</v>
       </c>
       <c r="M6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.677922417</v>
       </c>
       <c r="N6" t="n">
-        <v>145389.9022617997</v>
+        <v>145366.677922417</v>
       </c>
       <c r="O6" t="n">
-        <v>129779.1973380452</v>
+        <v>129583.7830909077</v>
       </c>
       <c r="P6" t="n">
-        <v>129779.1973380452</v>
+        <v>129583.7830909077</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888434</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>573.6146023115137</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N8" t="n">
         <v>1055.29721788524</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P9" t="n">
         <v>828.0031984638366</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>508.3978557094121</v>
       </c>
       <c r="M11" t="n">
-        <v>573.6146023115137</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N11" t="n">
         <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>573.6146023115137</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>979.9836670718073</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36852,10 +36852,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>573.6146023115137</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>573.6146023115143</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.482873487266</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,7 +38025,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>573.6146023115137</v>
+        <v>573.6146023115144</v>
       </c>
       <c r="N44" t="n">
         <v>1055.29721788524</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>624.7429452246683</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
